--- a/salidas/despliegue/resultado.xlsx
+++ b/salidas/despliegue/resultado.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Pituitary</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Meningioma</t>
+          <t>Glioma</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Pituitary</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>No tumor</t>
+          <t>Pituitary</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Pituitary</t>
+          <t>Meningioma</t>
         </is>
       </c>
     </row>
